--- a/WebContent/jhk/document/3조 4번 프로젝트_수정용.xlsx
+++ b/WebContent/jhk/document/3조 4번 프로젝트_수정용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project04\WebContent\발표자료\1차\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="353">
   <si>
     <t>구분</t>
   </si>
@@ -1035,1280 +1035,28 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개설할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정규</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원데이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양식에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>맞게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력해</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통해서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제작한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>호스트</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이트에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스 조회</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>거절하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>삭제</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클래스의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스토어에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매등록한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리스트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>판매정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구매자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>현황</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>내가 신청한 클래스의 상태, 클래스 신청자 정보를 조회하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>비고</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>문의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
+      <t>문의 목록</t>
     </r>
     <r>
       <rPr>
@@ -2321,151 +1069,131 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
+    <t>클래스를 통해서 제작한 상품의 판매를 신청하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이트의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가입된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>일부를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정하는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
+    <t>클래스 가입 신청</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>비고</t>
+    <t>클래스 가입을 신청하는 기능</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>기한</t>
+    <t>회원 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 클래스의 목록을 조회하여 등록,거절하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 클래스를 사이트에서 삭제하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 회원정보를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품등록 신청</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매 상품 조회</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 판매등록한 상품의 리스트, 판매정보(구매자 현황 등)를 조회하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>호스트 신청</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스등록 신청, 판매상품을 관리할 수 있는 호스트 등급의 신청 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트의 가입된 회원정보 일부를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 목록</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청된 클래스의 정보를 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 삭제</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 수정</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스토어에 등록된 상품을 수정하는 기능</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 10일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 12일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 12일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 11일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 20일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 18일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 20일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 13일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 13일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 17일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 15일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 15일</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3월 17일</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2473,10 +1201,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yy\-mm\-dd\ h:mm"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2561,6 +1290,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2576,7 +1312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2649,11 +1385,241 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2768,10 +1734,102 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2789,25 +1847,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3085,10 +2166,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -3102,8 +2183,8 @@
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -3115,8 +2196,8 @@
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -3128,8 +2209,8 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -3143,8 +2224,8 @@
       <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
@@ -3156,7 +2237,7 @@
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="78" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3173,8 +2254,8 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="47"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="79"/>
+      <c r="B8" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -3188,8 +2269,8 @@
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3201,8 +2282,8 @@
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -3216,8 +2297,8 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
@@ -3229,8 +2310,8 @@
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
@@ -3242,8 +2323,8 @@
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3255,8 +2336,8 @@
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="47"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="79"/>
+      <c r="B14" s="78" t="s">
         <v>39</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -3270,8 +2351,8 @@
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="4" t="s">
         <v>42</v>
       </c>
@@ -3283,8 +2364,8 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4" t="s">
         <v>44</v>
       </c>
@@ -3296,8 +2377,8 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A17" s="47"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="78" t="s">
         <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -3311,8 +2392,8 @@
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A18" s="47"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
@@ -3324,8 +2405,8 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="47"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="79"/>
+      <c r="B19" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -3339,8 +2420,8 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="8" t="s">
         <v>54</v>
       </c>
@@ -3352,8 +2433,8 @@
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="8" t="s">
         <v>56</v>
       </c>
@@ -3365,7 +2446,7 @@
       <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="78" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -3382,7 +2463,7 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" ht="12.75">
-      <c r="A23" s="47"/>
+      <c r="A23" s="79"/>
       <c r="B23" s="4" t="s">
         <v>62</v>
       </c>
@@ -3397,8 +2478,8 @@
       <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="47"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -3412,8 +2493,8 @@
       <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
@@ -3425,8 +2506,8 @@
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
@@ -3438,8 +2519,8 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="47"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -3453,8 +2534,8 @@
       <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
@@ -3466,8 +2547,8 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="4" t="s">
         <v>77</v>
       </c>
@@ -3479,8 +2560,8 @@
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="4" t="s">
         <v>79</v>
       </c>
@@ -3492,8 +2573,8 @@
       <c r="G30" s="5"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="4" t="s">
         <v>81</v>
       </c>
@@ -3505,8 +2586,8 @@
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="8" t="s">
         <v>83</v>
       </c>
@@ -3515,8 +2596,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75">
-      <c r="A33" s="47"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="79"/>
+      <c r="B33" s="78" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="4" t="s">
@@ -3527,8 +2608,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="4" t="s">
         <v>88</v>
       </c>
@@ -3537,8 +2618,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="4" t="s">
         <v>90</v>
       </c>
@@ -3547,8 +2628,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75">
-      <c r="A36" s="47"/>
-      <c r="B36" s="47"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3557,8 +2638,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="4" t="s">
         <v>81</v>
       </c>
@@ -3567,8 +2648,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="4" t="s">
         <v>83</v>
       </c>
@@ -3577,10 +2658,10 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="46" t="s">
+      <c r="B39" s="78" t="s">
         <v>97</v>
       </c>
       <c r="C39" s="4" t="s">
@@ -3591,8 +2672,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="4" t="s">
         <v>100</v>
       </c>
@@ -3601,8 +2682,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="46" t="s">
+      <c r="A41" s="79"/>
+      <c r="B41" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C41" s="4" t="s">
@@ -3613,8 +2694,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="4" t="s">
         <v>105</v>
       </c>
@@ -3623,8 +2704,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75">
-      <c r="A43" s="47"/>
-      <c r="B43" s="46" t="s">
+      <c r="A43" s="79"/>
+      <c r="B43" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C43" s="4" t="s">
@@ -3635,8 +2716,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="4" t="s">
         <v>110</v>
       </c>
@@ -3645,8 +2726,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75">
-      <c r="A45" s="47"/>
-      <c r="B45" s="46" t="s">
+      <c r="A45" s="79"/>
+      <c r="B45" s="78" t="s">
         <v>112</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -3657,8 +2738,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="4" t="s">
         <v>115</v>
       </c>
@@ -3667,8 +2748,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75">
-      <c r="A47" s="47"/>
-      <c r="B47" s="46" t="s">
+      <c r="A47" s="79"/>
+      <c r="B47" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -3679,8 +2760,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
       <c r="C48" s="4" t="s">
         <v>120</v>
       </c>
@@ -3689,8 +2770,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="4" t="s">
         <v>122</v>
       </c>
@@ -3699,8 +2780,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
       <c r="C50" s="4" t="s">
         <v>124</v>
       </c>
@@ -3710,15 +2791,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -3729,6 +2801,15 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3798,7 +2879,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
-      <c r="K2" s="48"/>
+      <c r="K2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="24"/>
@@ -3814,7 +2895,7 @@
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
-      <c r="K3" s="47"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" ht="14.25">
       <c r="A4" s="24"/>
@@ -4369,10 +3450,10 @@
       <c r="Y1" s="13"/>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="81" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -4404,8 +3485,8 @@
       <c r="Y2" s="18"/>
     </row>
     <row r="3" spans="1:25" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="16" t="s">
         <v>128</v>
       </c>
@@ -4435,8 +3516,8 @@
       <c r="Y3" s="18"/>
     </row>
     <row r="4" spans="1:25" ht="24.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="16" t="s">
         <v>130</v>
       </c>
@@ -4466,7 +3547,7 @@
       <c r="Y4" s="18"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
-      <c r="A5" s="47"/>
+      <c r="A5" s="79"/>
       <c r="B5" s="14" t="s">
         <v>17</v>
       </c>
@@ -4499,10 +3580,10 @@
       <c r="Y5" s="18"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="81" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -4534,8 +3615,8 @@
       <c r="Y6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="24.75">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="16" t="s">
         <v>136</v>
       </c>
@@ -4565,8 +3646,8 @@
       <c r="Y7" s="18"/>
     </row>
     <row r="8" spans="1:25" ht="24.75">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="16" t="s">
         <v>140</v>
       </c>
@@ -4596,8 +3677,8 @@
       <c r="Y8" s="18"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="16" t="s">
         <v>142</v>
       </c>
@@ -4627,8 +3708,8 @@
       <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:25" ht="12.75">
-      <c r="A10" s="47"/>
-      <c r="B10" s="49" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="81" t="s">
         <v>85</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -4660,8 +3741,8 @@
       <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:25" ht="24.75">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="16" t="s">
         <v>151</v>
       </c>
@@ -4691,8 +3772,8 @@
       <c r="Y11" s="18"/>
     </row>
     <row r="12" spans="1:25" ht="24.75">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="16" t="s">
         <v>155</v>
       </c>
@@ -4722,8 +3803,8 @@
       <c r="Y12" s="18"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="16" t="s">
         <v>92</v>
       </c>
@@ -4753,7 +3834,7 @@
       <c r="Y13" s="18"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
-      <c r="A14" s="47"/>
+      <c r="A14" s="79"/>
       <c r="B14" s="14" t="s">
         <v>159</v>
       </c>
@@ -4786,10 +3867,10 @@
       <c r="Y14" s="18"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="81" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="16" t="s">
@@ -4821,8 +3902,8 @@
       <c r="Y15" s="18"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="79"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="16" t="s">
         <v>173</v>
       </c>
@@ -4852,8 +3933,8 @@
       <c r="Y16" s="18"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="16" t="s">
         <v>179</v>
       </c>
@@ -4883,8 +3964,8 @@
       <c r="Y17" s="18"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="16" t="s">
         <v>187</v>
       </c>
@@ -4914,7 +3995,7 @@
       <c r="Y18" s="18"/>
     </row>
     <row r="19" spans="1:25" ht="12.75">
-      <c r="A19" s="47"/>
+      <c r="A19" s="79"/>
       <c r="B19" s="14" t="s">
         <v>193</v>
       </c>
@@ -4947,7 +4028,7 @@
       <c r="Y19" s="18"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
-      <c r="A20" s="47"/>
+      <c r="A20" s="79"/>
       <c r="B20" s="14" t="s">
         <v>62</v>
       </c>
@@ -4980,7 +4061,7 @@
       <c r="Y20" s="18"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="81" t="s">
         <v>193</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -5015,7 +4096,7 @@
       <c r="Y21" s="18"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
-      <c r="A22" s="47"/>
+      <c r="A22" s="79"/>
       <c r="B22" s="14" t="s">
         <v>215</v>
       </c>
@@ -5048,7 +4129,7 @@
       <c r="Y22" s="18"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="81" t="s">
         <v>224</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -5083,8 +4164,8 @@
       <c r="Y23" s="18"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
-      <c r="A24" s="47"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="81" t="s">
         <v>65</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -5116,8 +4197,8 @@
       <c r="Y24" s="18"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="16" t="s">
         <v>238</v>
       </c>
@@ -5147,8 +4228,8 @@
       <c r="Y25" s="18"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="16" t="s">
         <v>186</v>
       </c>
@@ -5178,10 +4259,10 @@
       <c r="Y26" s="18"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="81" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="81" t="s">
         <v>221</v>
       </c>
       <c r="C27" s="16" t="s">
@@ -5213,8 +4294,8 @@
       <c r="Y27" s="18"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="16" t="s">
         <v>252</v>
       </c>
@@ -5244,8 +4325,8 @@
       <c r="Y28" s="18"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="49" t="s">
+      <c r="A29" s="79"/>
+      <c r="B29" s="81" t="s">
         <v>255</v>
       </c>
       <c r="C29" s="16" t="s">
@@ -5277,8 +4358,8 @@
       <c r="Y29" s="18"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="16" t="s">
         <v>107</v>
       </c>
@@ -5308,8 +4389,8 @@
       <c r="Y30" s="18"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="79"/>
+      <c r="B31" s="81" t="s">
         <v>259</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -5341,8 +4422,8 @@
       <c r="Y31" s="18"/>
     </row>
     <row r="32" spans="1:25" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="16" t="s">
         <v>242</v>
       </c>
@@ -31482,6 +30563,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A27:A32"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A2:A5"/>
@@ -31489,13 +30577,6 @@
     <mergeCell ref="A6:A14"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A27:A32"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -31568,10 +30649,10 @@
       <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="82" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="82" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -31588,8 +30669,8 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="30" t="s">
         <v>148</v>
       </c>
@@ -31604,8 +30685,8 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="51"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="30" t="s">
         <v>218</v>
       </c>
@@ -31620,8 +30701,8 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50" t="s">
+      <c r="A7" s="83"/>
+      <c r="B7" s="82" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -31638,8 +30719,8 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="30" t="s">
         <v>239</v>
       </c>
@@ -31654,10 +30735,10 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="82" t="s">
         <v>246</v>
       </c>
       <c r="C9" s="30" t="s">
@@ -31674,8 +30755,8 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="30" t="s">
         <v>77</v>
       </c>
@@ -31690,8 +30771,8 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
@@ -31706,8 +30787,8 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50" t="s">
+      <c r="A12" s="83"/>
+      <c r="B12" s="82" t="s">
         <v>260</v>
       </c>
       <c r="C12" s="30" t="s">
@@ -31724,8 +30805,8 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="30" t="s">
         <v>77</v>
       </c>
@@ -31740,8 +30821,8 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
@@ -31756,8 +30837,8 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50" t="s">
+      <c r="A15" s="83"/>
+      <c r="B15" s="82" t="s">
         <v>85</v>
       </c>
       <c r="C15" s="30" t="s">
@@ -31774,8 +30855,8 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="30" t="s">
         <v>90</v>
       </c>
@@ -31790,8 +30871,8 @@
       <c r="J16" s="29"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="51"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="30" t="s">
         <v>266</v>
       </c>
@@ -31806,8 +30887,8 @@
       <c r="J17" s="29"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -31824,8 +30905,8 @@
       <c r="J18" s="29"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="30" t="s">
         <v>184</v>
       </c>
@@ -31840,8 +30921,8 @@
       <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="30" t="s">
         <v>270</v>
       </c>
@@ -31856,8 +30937,8 @@
       <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="30" t="s">
         <v>245</v>
       </c>
@@ -31872,10 +30953,10 @@
       <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50" t="s">
+      <c r="A22" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="82" t="s">
         <v>166</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -31892,8 +30973,8 @@
       <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="30" t="s">
         <v>275</v>
       </c>
@@ -31908,8 +30989,8 @@
       <c r="J23" s="29"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="30" t="s">
         <v>277</v>
       </c>
@@ -31924,8 +31005,8 @@
       <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="30" t="s">
         <v>279</v>
       </c>
@@ -31940,10 +31021,10 @@
       <c r="J25" s="29"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="82" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="82" t="s">
         <v>221</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -31960,8 +31041,8 @@
       <c r="J26" s="29"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="30" t="s">
         <v>282</v>
       </c>
@@ -31976,8 +31057,8 @@
       <c r="J27" s="29"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="51"/>
-      <c r="B28" s="50" t="s">
+      <c r="A28" s="83"/>
+      <c r="B28" s="82" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="30" t="s">
@@ -31992,8 +31073,8 @@
       <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
+      <c r="A29" s="83"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="30" t="s">
         <v>285</v>
       </c>
@@ -32006,8 +31087,8 @@
       <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="83"/>
       <c r="C30" s="30" t="s">
         <v>286</v>
       </c>
@@ -32020,8 +31101,8 @@
       <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="30" t="s">
         <v>285</v>
       </c>
@@ -32034,8 +31115,8 @@
       <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="83"/>
+      <c r="B32" s="84"/>
       <c r="C32" s="30" t="s">
         <v>287</v>
       </c>
@@ -32050,7 +31131,7 @@
       <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="51"/>
+      <c r="A33" s="83"/>
       <c r="B33" s="30" t="s">
         <v>102</v>
       </c>
@@ -32068,7 +31149,7 @@
       <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="52"/>
+      <c r="A34" s="84"/>
       <c r="B34" s="30" t="s">
         <v>291</v>
       </c>
@@ -32101,6 +31182,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -32109,11 +31195,6 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32175,10 +31256,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12.75">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="78" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -32189,13 +31270,13 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12.75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
@@ -32204,11 +31285,11 @@
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="47"/>
+      <c r="G3" s="79"/>
     </row>
     <row r="4" spans="1:10" ht="12.75">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
@@ -32217,11 +31298,11 @@
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47"/>
+      <c r="G4" s="79"/>
     </row>
     <row r="5" spans="1:10" ht="12.75">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -32232,11 +31313,11 @@
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="47"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="79"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="4" t="s">
         <v>229</v>
       </c>
@@ -32245,11 +31326,11 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="47"/>
+      <c r="G6" s="79"/>
     </row>
     <row r="7" spans="1:10" ht="12.75">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="79"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
@@ -32258,13 +31339,13 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="47"/>
+      <c r="G7" s="79"/>
     </row>
     <row r="8" spans="1:10" ht="12.75">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="78" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -32275,13 +31356,13 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="78" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="12.75">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="4" t="s">
         <v>47</v>
       </c>
@@ -32290,11 +31371,11 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="47"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="1:10" ht="12.75">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
@@ -32303,11 +31384,11 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="47"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:10" ht="12.75">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
@@ -32316,11 +31397,11 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="47"/>
+      <c r="G11" s="79"/>
     </row>
     <row r="12" spans="1:10" ht="12.75">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="78" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -32331,11 +31412,11 @@
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="47"/>
+      <c r="G12" s="79"/>
     </row>
     <row r="13" spans="1:10" ht="12.75">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
@@ -32344,11 +31425,11 @@
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="47"/>
+      <c r="G13" s="79"/>
     </row>
     <row r="14" spans="1:10" ht="12.75">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
@@ -32357,11 +31438,11 @@
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="47"/>
+      <c r="G14" s="79"/>
     </row>
     <row r="15" spans="1:10" ht="12.75">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="4" t="s">
         <v>298</v>
       </c>
@@ -32370,11 +31451,11 @@
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="47"/>
+      <c r="G15" s="79"/>
     </row>
     <row r="16" spans="1:10" ht="12.75">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="4" t="s">
         <v>300</v>
       </c>
@@ -32383,11 +31464,11 @@
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="47"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" spans="1:7" ht="12.75">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="78" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -32398,11 +31479,11 @@
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="47"/>
+      <c r="G17" s="79"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -32411,11 +31492,11 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="47"/>
+      <c r="G18" s="79"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="4" t="s">
         <v>44</v>
       </c>
@@ -32424,11 +31505,11 @@
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="47"/>
+      <c r="G19" s="79"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="78" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -32439,11 +31520,11 @@
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="47"/>
+      <c r="G20" s="79"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="8" t="s">
         <v>54</v>
       </c>
@@ -32452,11 +31533,11 @@
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="47"/>
+      <c r="G21" s="79"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="8" t="s">
         <v>56</v>
       </c>
@@ -32465,20 +31546,20 @@
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
-      <c r="G22" s="47"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23" spans="1:7" s="41" customFormat="1" ht="12.75">
-      <c r="A23" s="46"/>
+      <c r="A23" s="78"/>
       <c r="C23" s="39"/>
       <c r="D23" s="37"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="78" t="s">
         <v>302</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -32489,13 +31570,13 @@
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="78" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="4" t="s">
         <v>60</v>
       </c>
@@ -32504,10 +31585,10 @@
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="47"/>
+      <c r="G25" s="79"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="47"/>
+      <c r="A26" s="79"/>
       <c r="B26" s="4" t="s">
         <v>62</v>
       </c>
@@ -32519,11 +31600,11 @@
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
-      <c r="G26" s="47"/>
+      <c r="G26" s="79"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="47"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="79"/>
+      <c r="B27" s="78" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -32534,11 +31615,11 @@
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="47"/>
+      <c r="G27" s="79"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="79"/>
       <c r="C28" s="4" t="s">
         <v>68</v>
       </c>
@@ -32547,11 +31628,11 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="47"/>
+      <c r="G28" s="79"/>
     </row>
     <row r="29" spans="1:7" ht="12.75">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="4" t="s">
         <v>70</v>
       </c>
@@ -32560,11 +31641,11 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="47"/>
+      <c r="G29" s="79"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="47"/>
-      <c r="B30" s="46" t="s">
+      <c r="A30" s="79"/>
+      <c r="B30" s="78" t="s">
         <v>72</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -32575,13 +31656,13 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="46" t="s">
+      <c r="G30" s="78" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="4" t="s">
         <v>77</v>
       </c>
@@ -32590,11 +31671,11 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="47"/>
+      <c r="G31" s="79"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="4" t="s">
         <v>306</v>
       </c>
@@ -32603,11 +31684,11 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="47"/>
+      <c r="G32" s="79"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
@@ -32616,11 +31697,11 @@
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="47"/>
+      <c r="G33" s="79"/>
     </row>
     <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
@@ -32629,22 +31710,22 @@
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="47"/>
+      <c r="G34" s="79"/>
     </row>
     <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="G35" s="47"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46" t="s">
+      <c r="A36" s="79"/>
+      <c r="B36" s="78" t="s">
         <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -32653,68 +31734,68 @@
       <c r="D36" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="47"/>
+      <c r="G36" s="79"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="47"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="4" t="s">
         <v>175</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="G38" s="47"/>
+      <c r="G38" s="79"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="G39" s="47"/>
+      <c r="G39" s="79"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="G40" s="47"/>
+      <c r="G40" s="79"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="4" t="s">
         <v>83</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G41" s="47"/>
+      <c r="G41" s="79"/>
     </row>
     <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="46" t="s">
+      <c r="B42" s="78" t="s">
         <v>97</v>
       </c>
       <c r="C42" s="4" t="s">
@@ -32723,24 +31804,24 @@
       <c r="D42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="78" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="4" t="s">
         <v>100</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G43" s="47"/>
+      <c r="G43" s="79"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="47"/>
-      <c r="B44" s="46" t="s">
+      <c r="A44" s="79"/>
+      <c r="B44" s="78" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -32749,22 +31830,22 @@
       <c r="D44" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="47"/>
+      <c r="G44" s="79"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="47"/>
-      <c r="B45" s="47"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G45" s="47"/>
+      <c r="G45" s="79"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46" t="s">
+      <c r="A46" s="79"/>
+      <c r="B46" s="78" t="s">
         <v>107</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -32773,22 +31854,22 @@
       <c r="D46" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G46" s="47"/>
+      <c r="G46" s="79"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="4" t="s">
         <v>110</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="79"/>
     </row>
     <row r="48" spans="1:7" ht="12.75">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="79"/>
+      <c r="B48" s="78" t="s">
         <v>235</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -32797,22 +31878,22 @@
       <c r="D48" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G48" s="47"/>
+      <c r="G48" s="79"/>
     </row>
     <row r="49" spans="1:12" ht="12.75">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
       <c r="C49" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="G49" s="47"/>
+      <c r="G49" s="79"/>
     </row>
     <row r="50" spans="1:12" ht="12.75">
-      <c r="A50" s="47"/>
-      <c r="B50" s="46" t="s">
+      <c r="A50" s="79"/>
+      <c r="B50" s="78" t="s">
         <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -32821,18 +31902,18 @@
       <c r="D50" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="G50" s="47"/>
+      <c r="G50" s="79"/>
     </row>
     <row r="51" spans="1:12" ht="12.75">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
       <c r="C51" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="G51" s="47"/>
+      <c r="G51" s="79"/>
     </row>
     <row r="52" spans="1:12" ht="12.75">
       <c r="A52" s="8" t="s">
@@ -32860,11 +31941,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -32875,15 +31960,11 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32896,10 +31977,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32915,787 +31996,1182 @@
     <col min="11" max="16384" width="14.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="59" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:10" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="52">
+        <v>43900</v>
+      </c>
+      <c r="F2" s="50">
+        <v>1</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="86"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="56">
+        <v>43900</v>
+      </c>
+      <c r="F3" s="49">
+        <v>1</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="86"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="56">
+        <v>43900</v>
+      </c>
+      <c r="F4" s="49">
+        <v>1</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="86"/>
+      <c r="B5" s="91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="56">
+        <v>43901</v>
+      </c>
+      <c r="F5" s="49">
+        <v>1</v>
+      </c>
+      <c r="G5" s="89"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="58"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="86"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="49" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>296</v>
+      </c>
+      <c r="E6" s="56">
+        <v>43901</v>
+      </c>
+      <c r="F6" s="49">
+        <v>1</v>
+      </c>
+      <c r="G6" s="89"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="58"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A7" s="87"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="59">
+        <v>43901</v>
+      </c>
+      <c r="F7" s="46">
+        <v>1</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="61"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="F8" s="50">
+        <v>1</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A9" s="92"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="49">
+        <v>1</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="92"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="49">
+        <v>2</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+    </row>
+    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="92"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="F11" s="49">
+        <v>2</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="58"/>
+    </row>
+    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="92"/>
+      <c r="B12" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="49">
+        <v>2</v>
+      </c>
+      <c r="G12" s="91"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="92"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="56" t="s">
+        <v>347</v>
+      </c>
+      <c r="F13" s="49">
+        <v>1</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="92"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>348</v>
+      </c>
+      <c r="F14" s="49">
+        <v>1</v>
+      </c>
+      <c r="G14" s="91"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="92"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="56" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="49">
+        <v>2</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A16" s="92"/>
+      <c r="B16" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>327</v>
+      </c>
+      <c r="E16" s="56" t="s">
+        <v>341</v>
+      </c>
+      <c r="F16" s="49">
+        <v>1</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="58"/>
+    </row>
+    <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A17" s="92"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>340</v>
+      </c>
+      <c r="F17" s="49">
+        <v>1</v>
+      </c>
+      <c r="G17" s="91"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="58"/>
+    </row>
+    <row r="18" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A18" s="92"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" s="49">
+        <v>1</v>
+      </c>
+      <c r="G18" s="91"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+    </row>
+    <row r="19" spans="1:10" s="48" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A19" s="92"/>
+      <c r="B19" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="55" t="s">
+        <v>321</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="49">
+        <v>2</v>
+      </c>
+      <c r="G19" s="91"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+    </row>
+    <row r="20" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A20" s="92"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="49">
+        <v>1</v>
+      </c>
+      <c r="G20" s="91"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+    </row>
+    <row r="21" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>317</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="F21" s="46">
+        <v>1</v>
+      </c>
+      <c r="G21" s="94"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A22" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="88" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D22" s="62" t="s">
+        <v>304</v>
+      </c>
+      <c r="E22" s="52">
+        <v>43902</v>
+      </c>
+      <c r="F22" s="50">
+        <v>1</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>295</v>
+      </c>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="54"/>
+    </row>
+    <row r="23" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="86"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="56">
+        <v>43902</v>
+      </c>
+      <c r="F23" s="49">
+        <v>1</v>
+      </c>
+      <c r="G23" s="89"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+    </row>
+    <row r="24" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="86"/>
+      <c r="B24" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="56">
+        <v>43902</v>
+      </c>
+      <c r="F24" s="49">
+        <v>1</v>
+      </c>
+      <c r="G24" s="89"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
+    </row>
+    <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A25" s="86"/>
+      <c r="B25" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F25" s="49">
+        <v>2</v>
+      </c>
+      <c r="G25" s="89"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="58"/>
+    </row>
+    <row r="26" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A26" s="86"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F26" s="49">
+        <v>2</v>
+      </c>
+      <c r="G26" s="89"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="58"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A27" s="86"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="63" t="s">
+        <v>331</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F27" s="49">
+        <v>1</v>
+      </c>
+      <c r="G27" s="89"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="58"/>
+    </row>
+    <row r="28" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A28" s="86"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F28" s="49">
+        <v>2</v>
+      </c>
+      <c r="G28" s="89"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="58"/>
+    </row>
+    <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A29" s="86"/>
+      <c r="B29" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="56">
+        <v>43901</v>
+      </c>
+      <c r="F29" s="49">
+        <v>1</v>
+      </c>
+      <c r="G29" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="58"/>
+    </row>
+    <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A30" s="86"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="56">
+        <v>43902</v>
+      </c>
+      <c r="F30" s="49">
+        <v>1</v>
+      </c>
+      <c r="G30" s="89"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="58"/>
+    </row>
+    <row r="31" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A31" s="86"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="E31" s="56">
+        <v>43902</v>
+      </c>
+      <c r="F31" s="49">
+        <v>1</v>
+      </c>
+      <c r="G31" s="89"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="58"/>
+    </row>
+    <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="86"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" s="56">
+        <v>43902</v>
+      </c>
+      <c r="F32" s="49">
+        <v>1</v>
+      </c>
+      <c r="G32" s="89"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="58"/>
+    </row>
+    <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A33" s="86"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F33" s="49">
+        <v>1</v>
+      </c>
+      <c r="G33" s="89"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="58"/>
+    </row>
+    <row r="34" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A34" s="86"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="56">
+        <v>43903</v>
+      </c>
+      <c r="F34" s="65">
+        <v>1</v>
+      </c>
+      <c r="G34" s="89"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="58"/>
+    </row>
+    <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A35" s="86"/>
+      <c r="B35" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F35" s="65">
+        <v>2</v>
+      </c>
+      <c r="G35" s="89"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="58"/>
+    </row>
+    <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A36" s="86"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F36" s="65">
+        <v>2</v>
+      </c>
+      <c r="G36" s="89"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="58"/>
+    </row>
+    <row r="37" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A37" s="86"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="55" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F37" s="65">
+        <v>2</v>
+      </c>
+      <c r="G37" s="89"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="58"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A38" s="86"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="66">
+        <v>43909</v>
+      </c>
+      <c r="F38" s="65">
+        <v>2</v>
+      </c>
+      <c r="G38" s="89"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="58"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A39" s="86"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="66">
+        <v>43910</v>
+      </c>
+      <c r="F39" s="65">
+        <v>2</v>
+      </c>
+      <c r="G39" s="89"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A40" s="87"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="66">
+        <v>43910</v>
+      </c>
+      <c r="F40" s="67">
+        <v>2</v>
+      </c>
+      <c r="G40" s="90"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+    </row>
+    <row r="41" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A41" s="85" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="68">
+        <v>43901</v>
+      </c>
+      <c r="F41" s="69">
+        <v>1</v>
+      </c>
+      <c r="G41" s="88" t="s">
+        <v>309</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="54"/>
+    </row>
+    <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A42" s="92"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F42" s="65">
+        <v>2</v>
+      </c>
+      <c r="G42" s="91"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A43" s="86"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F43" s="65">
+        <v>2</v>
+      </c>
+      <c r="G43" s="89"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="58"/>
+    </row>
+    <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A44" s="86"/>
+      <c r="B44" s="91" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="D44" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="66">
+        <v>43901</v>
+      </c>
+      <c r="F44" s="70">
+        <v>1</v>
+      </c>
+      <c r="G44" s="89"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="58"/>
+    </row>
+    <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A45" s="86"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="D45" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E45" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F45" s="65">
+        <v>2</v>
+      </c>
+      <c r="G45" s="89"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="58"/>
+    </row>
+    <row r="46" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A46" s="86"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="D46" s="55" t="s">
+        <v>326</v>
+      </c>
+      <c r="E46" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F46" s="65">
+        <v>2</v>
+      </c>
+      <c r="G46" s="89"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="58"/>
+    </row>
+    <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
+      <c r="A47" s="86"/>
+      <c r="B47" s="91" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="66">
+        <v>43901</v>
+      </c>
+      <c r="F47" s="70">
+        <v>1</v>
+      </c>
+      <c r="G47" s="89"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="58"/>
+    </row>
+    <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A48" s="86"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="F1" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="46" t="s">
+      <c r="D48" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F48" s="65">
+        <v>2</v>
+      </c>
+      <c r="G48" s="89"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="58"/>
+    </row>
+    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A49" s="86"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="49" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F49" s="65">
+        <v>2</v>
+      </c>
+      <c r="G49" s="89"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="58"/>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A50" s="86"/>
+      <c r="B50" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F50" s="65">
+        <v>2</v>
+      </c>
+      <c r="G50" s="89"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="58"/>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A51" s="86"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E51" s="66">
+        <v>43908</v>
+      </c>
+      <c r="F51" s="65">
+        <v>3</v>
+      </c>
+      <c r="G51" s="89"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="58"/>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
+      <c r="A52" s="86"/>
+      <c r="B52" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E52" s="66">
+        <v>43903</v>
+      </c>
+      <c r="F52" s="65">
+        <v>3</v>
+      </c>
+      <c r="G52" s="89"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A53" s="87"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="71">
+        <v>43908</v>
+      </c>
+      <c r="F53" s="67">
+        <v>3</v>
+      </c>
+      <c r="G53" s="90"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="61"/>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A54" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="B54" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C54" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D54" s="74" t="s">
+        <v>313</v>
+      </c>
+      <c r="E54" s="75">
+        <v>43899</v>
+      </c>
+      <c r="F54" s="76">
+        <v>1</v>
+      </c>
+      <c r="G54" s="73" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="47"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1">
-      <c r="A8" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="46"/>
-    </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="53" t="s">
-        <v>319</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>333</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
-      <c r="A22" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="46" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1">
-      <c r="A23" s="47"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="47"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" customHeight="1">
-      <c r="A24" s="47"/>
-      <c r="B24" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="47"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" customHeight="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" customHeight="1">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>317</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1">
-      <c r="A30" s="47"/>
-      <c r="B30" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="46" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" customHeight="1">
-      <c r="A31" s="47"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="47"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" customHeight="1">
-      <c r="A32" s="47"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="47"/>
-    </row>
-    <row r="33" spans="1:7" ht="15" customHeight="1">
-      <c r="A33" s="47"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="47"/>
-    </row>
-    <row r="34" spans="1:7" ht="15" customHeight="1">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="47"/>
-    </row>
-    <row r="35" spans="1:7" ht="15" customHeight="1">
-      <c r="A35" s="47"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="47"/>
-    </row>
-    <row r="36" spans="1:7" ht="15" customHeight="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="47"/>
-    </row>
-    <row r="37" spans="1:7" ht="15" customHeight="1">
-      <c r="A37" s="47"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="47"/>
-    </row>
-    <row r="38" spans="1:7" ht="15" customHeight="1">
-      <c r="A38" s="47"/>
-      <c r="B38" s="47"/>
-      <c r="C38" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="G38" s="47"/>
-    </row>
-    <row r="39" spans="1:7" ht="15" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="47"/>
-    </row>
-    <row r="40" spans="1:7" ht="15" customHeight="1">
-      <c r="A40" s="47"/>
-      <c r="B40" s="47"/>
-      <c r="C40" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G40" s="47"/>
-    </row>
-    <row r="41" spans="1:7" ht="15" customHeight="1">
-      <c r="A41" s="47"/>
-      <c r="B41" s="47"/>
-      <c r="C41" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="G41" s="47"/>
-    </row>
-    <row r="42" spans="1:7" ht="15" customHeight="1">
-      <c r="A42" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="46" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A43" s="46"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="D43" s="54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" customHeight="1">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G44" s="47"/>
-    </row>
-    <row r="45" spans="1:7" ht="15" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="D45" s="54" t="s">
-        <v>326</v>
-      </c>
-      <c r="G45" s="47"/>
-    </row>
-    <row r="46" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A46" s="47"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>329</v>
-      </c>
-      <c r="G46" s="47"/>
-    </row>
-    <row r="47" spans="1:7" ht="15" customHeight="1">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>320</v>
-      </c>
-      <c r="G47" s="47"/>
-    </row>
-    <row r="48" spans="1:7" ht="15" customHeight="1">
-      <c r="A48" s="47"/>
-      <c r="B48" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48" s="47"/>
-    </row>
-    <row r="49" spans="1:12" s="43" customFormat="1" ht="15" customHeight="1">
-      <c r="A49" s="47"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="54" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="47"/>
-    </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47"/>
-      <c r="C50" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" s="47"/>
-    </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1">
-      <c r="A51" s="47"/>
-      <c r="B51" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C51" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="G51" s="47"/>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="G52" s="47"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1">
-      <c r="A53" s="47"/>
-      <c r="B53" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="47"/>
-    </row>
-    <row r="54" spans="1:12" ht="15" customHeight="1">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="47"/>
-    </row>
-    <row r="55" spans="1:12" ht="15" customHeight="1">
-      <c r="A55" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>313</v>
-      </c>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
+      <c r="H54" s="73"/>
+      <c r="I54" s="73"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:G53"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="A8:A21"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B16:B18"/>
     <mergeCell ref="G8:G21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A42:A54"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="G42:G54"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A22:A41"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WebContent/jhk/document/3조 4번 프로젝트_수정용.xlsx
+++ b/WebContent/jhk/document/3조 4번 프로젝트_수정용.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\project04\project04\WebContent\발표자료\1차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-14\Desktop\project04\WebContent\jhk\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1298,7 +1298,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1309,6 +1309,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1619,7 +1625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1862,11 +1868,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1887,6 +1893,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2791,6 +2803,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A7:A21"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B14:B16"/>
     <mergeCell ref="B33:B38"/>
     <mergeCell ref="A39:A50"/>
     <mergeCell ref="B39:B40"/>
@@ -2801,15 +2822,6 @@
     <mergeCell ref="A22:A38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A7:A21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B14:B16"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30563,6 +30575,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B24:B26"/>
@@ -30570,13 +30589,6 @@
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A15:A20"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A6:A14"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="G1:G999 H1:H999">
@@ -31182,11 +31194,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B32"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -31195,6 +31202,11 @@
     <mergeCell ref="A9:A21"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B32"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31941,15 +31953,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G30:G41"/>
-    <mergeCell ref="G42:G51"/>
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A24:A41"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="A42:A51"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -31960,11 +31968,15 @@
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A8:A23"/>
-    <mergeCell ref="A24:A41"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G30:G41"/>
+    <mergeCell ref="G42:G51"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31979,8 +31991,8 @@
   </sheetPr>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32096,7 +32108,7 @@
     </row>
     <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="86"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="90" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="49" t="s">
@@ -32138,7 +32150,7 @@
     </row>
     <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A7" s="87"/>
-      <c r="B7" s="90"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="46" t="s">
         <v>17</v>
       </c>
@@ -32151,7 +32163,7 @@
       <c r="F7" s="46">
         <v>1</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="60"/>
       <c r="I7" s="60"/>
       <c r="J7" s="61"/>
@@ -32163,7 +32175,7 @@
       <c r="B8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="100" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="51" t="s">
@@ -32185,7 +32197,7 @@
     <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="92"/>
       <c r="B9" s="89"/>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="99" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="55" t="s">
@@ -32197,7 +32209,7 @@
       <c r="F9" s="49">
         <v>1</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
       <c r="J9" s="58"/>
@@ -32217,7 +32229,7 @@
       <c r="F10" s="49">
         <v>2</v>
       </c>
-      <c r="G10" s="91"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="57"/>
       <c r="I10" s="57"/>
       <c r="J10" s="58"/>
@@ -32237,7 +32249,7 @@
       <c r="F11" s="49">
         <v>2</v>
       </c>
-      <c r="G11" s="91"/>
+      <c r="G11" s="90"/>
       <c r="H11" s="57"/>
       <c r="I11" s="57"/>
       <c r="J11" s="58"/>
@@ -32259,7 +32271,7 @@
       <c r="F12" s="49">
         <v>2</v>
       </c>
-      <c r="G12" s="91"/>
+      <c r="G12" s="90"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
       <c r="J12" s="58"/>
@@ -32279,7 +32291,7 @@
       <c r="F13" s="49">
         <v>1</v>
       </c>
-      <c r="G13" s="91"/>
+      <c r="G13" s="90"/>
       <c r="H13" s="57"/>
       <c r="I13" s="57"/>
       <c r="J13" s="58"/>
@@ -32299,7 +32311,7 @@
       <c r="F14" s="49">
         <v>1</v>
       </c>
-      <c r="G14" s="91"/>
+      <c r="G14" s="90"/>
       <c r="H14" s="57"/>
       <c r="I14" s="57"/>
       <c r="J14" s="58"/>
@@ -32319,17 +32331,17 @@
       <c r="F15" s="49">
         <v>2</v>
       </c>
-      <c r="G15" s="91"/>
+      <c r="G15" s="90"/>
       <c r="H15" s="57"/>
       <c r="I15" s="57"/>
       <c r="J15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="92"/>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="99" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="55" t="s">
@@ -32341,7 +32353,7 @@
       <c r="F16" s="49">
         <v>1</v>
       </c>
-      <c r="G16" s="91"/>
+      <c r="G16" s="90"/>
       <c r="H16" s="57"/>
       <c r="I16" s="57"/>
       <c r="J16" s="58"/>
@@ -32349,7 +32361,7 @@
     <row r="17" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="92"/>
       <c r="B17" s="89"/>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="99" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="55" t="s">
@@ -32361,7 +32373,7 @@
       <c r="F17" s="49">
         <v>1</v>
       </c>
-      <c r="G17" s="91"/>
+      <c r="G17" s="90"/>
       <c r="H17" s="57"/>
       <c r="I17" s="57"/>
       <c r="J17" s="58"/>
@@ -32381,7 +32393,7 @@
       <c r="F18" s="49">
         <v>1</v>
       </c>
-      <c r="G18" s="91"/>
+      <c r="G18" s="90"/>
       <c r="H18" s="57"/>
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
@@ -32403,7 +32415,7 @@
       <c r="F19" s="49">
         <v>2</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="90"/>
       <c r="H19" s="57"/>
       <c r="I19" s="57"/>
       <c r="J19" s="58"/>
@@ -32423,7 +32435,7 @@
       <c r="F20" s="49">
         <v>1</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="90"/>
       <c r="H20" s="57"/>
       <c r="I20" s="57"/>
       <c r="J20" s="58"/>
@@ -32518,7 +32530,7 @@
     </row>
     <row r="25" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="90" t="s">
         <v>65</v>
       </c>
       <c r="C25" s="49" t="s">
@@ -32600,10 +32612,10 @@
     </row>
     <row r="29" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="99" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="55" t="s">
@@ -32615,7 +32627,7 @@
       <c r="F29" s="49">
         <v>1</v>
       </c>
-      <c r="G29" s="91" t="s">
+      <c r="G29" s="90" t="s">
         <v>305</v>
       </c>
       <c r="H29" s="57"/>
@@ -32625,7 +32637,7 @@
     <row r="30" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="86"/>
       <c r="B30" s="89"/>
-      <c r="C30" s="49" t="s">
+      <c r="C30" s="99" t="s">
         <v>77</v>
       </c>
       <c r="D30" s="55" t="s">
@@ -32665,7 +32677,7 @@
     <row r="32" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="86"/>
       <c r="B32" s="89"/>
-      <c r="C32" s="49" t="s">
+      <c r="C32" s="99" t="s">
         <v>322</v>
       </c>
       <c r="D32" s="55" t="s">
@@ -32685,7 +32697,7 @@
     <row r="33" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="86"/>
       <c r="B33" s="89"/>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="99" t="s">
         <v>81</v>
       </c>
       <c r="D33" s="55" t="s">
@@ -32724,10 +32736,10 @@
     </row>
     <row r="35" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="86"/>
-      <c r="B35" s="91" t="s">
+      <c r="B35" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="49" t="s">
+      <c r="C35" s="99" t="s">
         <v>86</v>
       </c>
       <c r="D35" s="55" t="s">
@@ -32747,7 +32759,7 @@
     <row r="36" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="86"/>
       <c r="B36" s="89"/>
-      <c r="C36" s="49" t="s">
+      <c r="C36" s="99" t="s">
         <v>90</v>
       </c>
       <c r="D36" s="55" t="s">
@@ -32787,7 +32799,7 @@
     <row r="38" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="86"/>
       <c r="B38" s="89"/>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="99" t="s">
         <v>92</v>
       </c>
       <c r="D38" s="55" t="s">
@@ -32807,7 +32819,7 @@
     <row r="39" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="86"/>
       <c r="B39" s="89"/>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="99" t="s">
         <v>81</v>
       </c>
       <c r="D39" s="55" t="s">
@@ -32826,7 +32838,7 @@
     </row>
     <row r="40" spans="1:10" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A40" s="87"/>
-      <c r="B40" s="90"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="46" t="s">
         <v>83</v>
       </c>
@@ -32839,7 +32851,7 @@
       <c r="F40" s="67">
         <v>2</v>
       </c>
-      <c r="G40" s="90"/>
+      <c r="G40" s="91"/>
       <c r="H40" s="60"/>
       <c r="I40" s="60"/>
       <c r="J40" s="61"/>
@@ -32851,7 +32863,7 @@
       <c r="B41" s="88" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="100" t="s">
         <v>98</v>
       </c>
       <c r="D41" s="51" t="s">
@@ -32872,7 +32884,7 @@
     </row>
     <row r="42" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="92"/>
-      <c r="B42" s="91"/>
+      <c r="B42" s="90"/>
       <c r="C42" s="49" t="s">
         <v>324</v>
       </c>
@@ -32885,7 +32897,7 @@
       <c r="F42" s="65">
         <v>2</v>
       </c>
-      <c r="G42" s="91"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="58"/>
@@ -32912,10 +32924,10 @@
     </row>
     <row r="44" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="86"/>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="90" t="s">
         <v>102</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="99" t="s">
         <v>334</v>
       </c>
       <c r="D44" s="55" t="s">
@@ -32934,7 +32946,7 @@
     </row>
     <row r="45" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="86"/>
-      <c r="B45" s="91"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="49" t="s">
         <v>335</v>
       </c>
@@ -32974,7 +32986,7 @@
     </row>
     <row r="47" spans="1:10" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="86"/>
-      <c r="B47" s="91" t="s">
+      <c r="B47" s="90" t="s">
         <v>107</v>
       </c>
       <c r="C47" s="49" t="s">
@@ -32996,7 +33008,7 @@
     </row>
     <row r="48" spans="1:10" s="43" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="86"/>
-      <c r="B48" s="91"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="49" t="s">
         <v>338</v>
       </c>
@@ -33036,7 +33048,7 @@
     </row>
     <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="86"/>
-      <c r="B50" s="91" t="s">
+      <c r="B50" s="90" t="s">
         <v>235</v>
       </c>
       <c r="C50" s="49" t="s">
@@ -33078,7 +33090,7 @@
     </row>
     <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="86"/>
-      <c r="B52" s="91" t="s">
+      <c r="B52" s="90" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="49" t="s">
@@ -33100,7 +33112,7 @@
     </row>
     <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A53" s="87"/>
-      <c r="B53" s="90"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="46" t="s">
         <v>124</v>
       </c>
@@ -33113,7 +33125,7 @@
       <c r="F53" s="67">
         <v>3</v>
       </c>
-      <c r="G53" s="90"/>
+      <c r="G53" s="91"/>
       <c r="H53" s="60"/>
       <c r="I53" s="60"/>
       <c r="J53" s="61"/>
@@ -33148,20 +33160,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A22:A40"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="G22:G28"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="G29:G40"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="A41:A53"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="G41:G53"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="G2:G7"/>
@@ -33172,6 +33170,20 @@
     <mergeCell ref="G8:G21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="G41:G53"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A22:A40"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="G22:G28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="G29:G40"/>
+    <mergeCell ref="B35:B40"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
